--- a/Code/Results/Cases/Case_0_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_120/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.671297208008676</v>
+        <v>8.511166290682612</v>
       </c>
       <c r="D2">
-        <v>4.092283852472309</v>
+        <v>7.336602992512772</v>
       </c>
       <c r="E2">
-        <v>6.444036243877936</v>
+        <v>12.17420243942703</v>
       </c>
       <c r="F2">
-        <v>30.15292743028562</v>
+        <v>39.4514277408683</v>
       </c>
       <c r="G2">
-        <v>2.065836387760077</v>
+        <v>3.684023309629047</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.29192081453963</v>
+        <v>30.53185555868647</v>
       </c>
       <c r="J2">
-        <v>5.239403166238645</v>
+        <v>9.850659160572398</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.308456879589225</v>
+        <v>9.765880897118548</v>
       </c>
       <c r="M2">
-        <v>29.91303633288104</v>
+        <v>26.67294745005681</v>
       </c>
       <c r="N2">
-        <v>19.46857190027302</v>
+        <v>17.61622787179599</v>
       </c>
       <c r="O2">
-        <v>23.26665197776743</v>
+        <v>30.77590289894916</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.708383666397655</v>
+        <v>8.539426696961097</v>
       </c>
       <c r="D3">
-        <v>4.122632232892565</v>
+        <v>7.35233068474836</v>
       </c>
       <c r="E3">
-        <v>6.570774832434774</v>
+        <v>12.22110154123809</v>
       </c>
       <c r="F3">
-        <v>28.99684813320552</v>
+        <v>39.39547983692009</v>
       </c>
       <c r="G3">
-        <v>2.074153843037362</v>
+        <v>3.687202568247016</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.53227455948996</v>
+        <v>30.51466231771913</v>
       </c>
       <c r="J3">
-        <v>5.331891211155565</v>
+        <v>9.882932442996141</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.388024377955515</v>
+        <v>9.794199200526787</v>
       </c>
       <c r="M3">
-        <v>28.12100929364312</v>
+        <v>26.06779840092776</v>
       </c>
       <c r="N3">
-        <v>18.65831223179762</v>
+        <v>17.34977537613874</v>
       </c>
       <c r="O3">
-        <v>22.39645459352597</v>
+        <v>30.73476350849494</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.733941936642713</v>
+        <v>8.557949298008847</v>
       </c>
       <c r="D4">
-        <v>4.142364082088199</v>
+        <v>7.362543191737735</v>
       </c>
       <c r="E4">
-        <v>6.650850997563702</v>
+        <v>12.251318481412</v>
       </c>
       <c r="F4">
-        <v>28.29439461363702</v>
+        <v>39.37167767804947</v>
       </c>
       <c r="G4">
-        <v>2.079406085334008</v>
+        <v>3.689258618311479</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.07435311745377</v>
+        <v>30.51177588678313</v>
       </c>
       <c r="J4">
-        <v>5.390053448355768</v>
+        <v>9.903699383792274</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.438099058365749</v>
+        <v>9.812428068074746</v>
       </c>
       <c r="M4">
-        <v>26.96117334058944</v>
+        <v>25.68958484395487</v>
       </c>
       <c r="N4">
-        <v>18.1455797969328</v>
+        <v>17.18612247847599</v>
       </c>
       <c r="O4">
-        <v>21.86801334594306</v>
+        <v>30.71741959624904</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.745032270779955</v>
+        <v>8.565791901223147</v>
       </c>
       <c r="D5">
-        <v>4.150676175414196</v>
+        <v>7.36684488146725</v>
       </c>
       <c r="E5">
-        <v>6.684058460483172</v>
+        <v>12.26399032842657</v>
       </c>
       <c r="F5">
-        <v>28.0103276777357</v>
+        <v>39.36463444889758</v>
       </c>
       <c r="G5">
-        <v>2.081584364260463</v>
+        <v>3.690122711189841</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.89007212785937</v>
+        <v>30.51252812696292</v>
       </c>
       <c r="J5">
-        <v>5.414111403813349</v>
+        <v>9.91240192504825</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.45882097294077</v>
+        <v>9.820068666399969</v>
       </c>
       <c r="M5">
-        <v>26.47375038096173</v>
+        <v>25.53397500618296</v>
       </c>
       <c r="N5">
-        <v>17.93308102835262</v>
+        <v>17.11949846769474</v>
       </c>
       <c r="O5">
-        <v>21.65438563564034</v>
+        <v>30.71234496560293</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.746913865226084</v>
+        <v>8.567111950329483</v>
       </c>
       <c r="D6">
-        <v>4.152072639878504</v>
+        <v>7.367567638598743</v>
       </c>
       <c r="E6">
-        <v>6.689607540127236</v>
+        <v>12.26611614126723</v>
       </c>
       <c r="F6">
-        <v>27.96330099134516</v>
+        <v>39.36362541565787</v>
       </c>
       <c r="G6">
-        <v>2.081948397477746</v>
+        <v>3.690267780408633</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.85961852401667</v>
+        <v>30.5127694767217</v>
       </c>
       <c r="J6">
-        <v>5.418128038493075</v>
+        <v>9.913861482076316</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.462281183831901</v>
+        <v>9.821350216036391</v>
       </c>
       <c r="M6">
-        <v>26.39192809160848</v>
+        <v>25.50805208898878</v>
       </c>
       <c r="N6">
-        <v>17.89758970828384</v>
+        <v>17.10844188927237</v>
       </c>
       <c r="O6">
-        <v>21.61902402784599</v>
+        <v>30.71162275216019</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.734088804060177</v>
+        <v>8.558053873517565</v>
       </c>
       <c r="D7">
-        <v>4.142475089828518</v>
+        <v>7.362600638541752</v>
       </c>
       <c r="E7">
-        <v>6.651296503276773</v>
+        <v>12.25148792678556</v>
       </c>
       <c r="F7">
-        <v>28.29055426717049</v>
+        <v>39.37157193254667</v>
       </c>
       <c r="G7">
-        <v>2.079435306908801</v>
+        <v>3.689270165422382</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.07185816847333</v>
+        <v>30.51177822486952</v>
       </c>
       <c r="J7">
-        <v>5.390376445517756</v>
+        <v>9.903815777263322</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.438377229620876</v>
+        <v>9.812530251890667</v>
       </c>
       <c r="M7">
-        <v>26.95465933972321</v>
+        <v>25.68749199279088</v>
       </c>
       <c r="N7">
-        <v>18.14272797430722</v>
+        <v>17.18522359277541</v>
       </c>
       <c r="O7">
-        <v>21.86512500413215</v>
+        <v>30.71734308568654</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.683490255206991</v>
+        <v>8.520667603047251</v>
       </c>
       <c r="D8">
-        <v>4.102517043809212</v>
+        <v>7.341910752474484</v>
       </c>
       <c r="E8">
-        <v>6.487271855687059</v>
+        <v>12.19007895852113</v>
       </c>
       <c r="F8">
-        <v>29.75296828977174</v>
+        <v>39.42995001330954</v>
       </c>
       <c r="G8">
-        <v>2.068674969613626</v>
+        <v>3.685097993427248</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.02833836172841</v>
+        <v>30.52433559619864</v>
       </c>
       <c r="J8">
-        <v>5.271014533078223</v>
+        <v>9.861590031061953</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.335644347169465</v>
+        <v>9.775470815216519</v>
       </c>
       <c r="M8">
-        <v>29.30759499720357</v>
+        <v>26.46578170889866</v>
       </c>
       <c r="N8">
-        <v>19.19250807429363</v>
+        <v>17.52441218245954</v>
       </c>
       <c r="O8">
-        <v>22.96552931019001</v>
+        <v>30.76007720497111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.60761143696971</v>
+        <v>8.456635179770668</v>
       </c>
       <c r="D9">
-        <v>4.033116506957941</v>
+        <v>7.305733437102417</v>
       </c>
       <c r="E9">
-        <v>6.183170321059594</v>
+        <v>12.08088465536554</v>
       </c>
       <c r="F9">
-        <v>32.66662128132207</v>
+        <v>39.62788363070951</v>
       </c>
       <c r="G9">
-        <v>2.048658052165644</v>
+        <v>3.67773720313033</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.96405320858033</v>
+        <v>30.60977660153833</v>
       </c>
       <c r="J9">
-        <v>5.047326422478101</v>
+        <v>9.786298692085772</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.143411756324367</v>
+        <v>9.709443568389375</v>
       </c>
       <c r="M9">
-        <v>33.44381715291013</v>
+        <v>27.93149861200899</v>
       </c>
       <c r="N9">
-        <v>21.12009005187916</v>
+        <v>18.18577634442784</v>
       </c>
       <c r="O9">
-        <v>25.16064682766493</v>
+        <v>30.90649689737817</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.567915151479831</v>
+        <v>8.415240399112736</v>
       </c>
       <c r="D10">
-        <v>3.98798013145126</v>
+        <v>7.281814948574279</v>
       </c>
       <c r="E10">
-        <v>5.969930543723864</v>
+        <v>12.00744199765367</v>
       </c>
       <c r="F10">
-        <v>34.82149853928559</v>
+        <v>39.82368649589556</v>
       </c>
       <c r="G10">
-        <v>2.034508515006647</v>
+        <v>3.672823831914902</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.41458449078712</v>
+        <v>30.70948299392133</v>
       </c>
       <c r="J10">
-        <v>4.888527105914031</v>
+        <v>9.735515929659746</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.007120083374074</v>
+        <v>9.664943451618393</v>
       </c>
       <c r="M10">
-        <v>36.18695256870414</v>
+        <v>28.96182682874153</v>
       </c>
       <c r="N10">
-        <v>22.44510253670749</v>
+        <v>18.66495500474066</v>
       </c>
       <c r="O10">
-        <v>26.78605143844637</v>
+        <v>31.05188237897725</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.553776001273442</v>
+        <v>8.397633985258807</v>
       </c>
       <c r="D11">
-        <v>3.968821183899387</v>
+        <v>7.271507682478067</v>
       </c>
       <c r="E11">
-        <v>5.875024123213889</v>
+        <v>11.97549036417444</v>
       </c>
       <c r="F11">
-        <v>35.80303645676527</v>
+        <v>39.92354534172868</v>
       </c>
       <c r="G11">
-        <v>2.028166913236079</v>
+        <v>3.670694775409819</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.07946228304257</v>
+        <v>30.76280161656059</v>
       </c>
       <c r="J11">
-        <v>4.817301119895454</v>
+        <v>9.713388059351756</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.94602500490014</v>
+        <v>9.645561046891304</v>
       </c>
       <c r="M11">
-        <v>37.37042358003504</v>
+        <v>29.41861924795643</v>
       </c>
       <c r="N11">
-        <v>23.02629831599679</v>
+        <v>18.88059259776184</v>
       </c>
       <c r="O11">
-        <v>27.52688476290027</v>
+        <v>31.12611834762259</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.549024457415083</v>
+        <v>8.391142862748373</v>
       </c>
       <c r="D12">
-        <v>3.961774071398179</v>
+        <v>7.267686750245201</v>
       </c>
       <c r="E12">
-        <v>5.839378837010213</v>
+        <v>11.96359975369159</v>
       </c>
       <c r="F12">
-        <v>36.17482146586487</v>
+        <v>39.96289320156857</v>
       </c>
       <c r="G12">
-        <v>2.025776842873935</v>
+        <v>3.669903714108718</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.33190344893324</v>
+        <v>30.78412930265667</v>
       </c>
       <c r="J12">
-        <v>4.790458568477109</v>
+        <v>9.705148054164251</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.92300508669307</v>
+        <v>9.638344569749766</v>
       </c>
       <c r="M12">
-        <v>37.80932702184858</v>
+        <v>29.5897445717574</v>
       </c>
       <c r="N12">
-        <v>23.24316702390548</v>
+        <v>18.96184110352726</v>
       </c>
       <c r="O12">
-        <v>27.80756666395514</v>
+        <v>31.15538171914881</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.550020333940526</v>
+        <v>8.392533012493967</v>
       </c>
       <c r="D13">
-        <v>3.963282362054005</v>
+        <v>7.268506004106248</v>
       </c>
       <c r="E13">
-        <v>5.84704274527715</v>
+        <v>11.96615133732937</v>
       </c>
       <c r="F13">
-        <v>36.09474726577126</v>
+        <v>39.95435104097167</v>
       </c>
       <c r="G13">
-        <v>2.026291121572687</v>
+        <v>3.670073410144133</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.27750657308536</v>
+        <v>30.77948557150611</v>
       </c>
       <c r="J13">
-        <v>4.796234122135427</v>
+        <v>9.70691649977385</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.927957949453837</v>
+        <v>9.639893296235197</v>
       </c>
       <c r="M13">
-        <v>37.7152123841513</v>
+        <v>29.5529741471459</v>
       </c>
       <c r="N13">
-        <v>23.19660519386049</v>
+        <v>18.94436207452006</v>
       </c>
       <c r="O13">
-        <v>27.74711085769709</v>
+        <v>31.14902832391053</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.553372777681986</v>
+        <v>8.397096428511215</v>
       </c>
       <c r="D14">
-        <v>3.968237180833383</v>
+        <v>7.271191685947484</v>
       </c>
       <c r="E14">
-        <v>5.872085721300207</v>
+        <v>11.97450793708024</v>
       </c>
       <c r="F14">
-        <v>35.83362174295885</v>
+        <v>39.92675189041364</v>
       </c>
       <c r="G14">
-        <v>2.02797006719854</v>
+        <v>3.670629390853601</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.1002175993863</v>
+        <v>30.76453351918515</v>
       </c>
       <c r="J14">
-        <v>4.815090276690912</v>
+        <v>9.712707360275765</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.944128916702605</v>
+        <v>9.644964876797538</v>
       </c>
       <c r="M14">
-        <v>37.40671770889432</v>
+        <v>29.43273570947823</v>
       </c>
       <c r="N14">
-        <v>23.04420530998448</v>
+        <v>18.88728555387434</v>
       </c>
       <c r="O14">
-        <v>27.54997392537301</v>
+        <v>31.1285028583581</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.555505933669722</v>
+        <v>8.399914578749664</v>
       </c>
       <c r="D15">
-        <v>3.971299567903821</v>
+        <v>7.272847442033585</v>
       </c>
       <c r="E15">
-        <v>5.887463290346949</v>
+        <v>11.97965375989746</v>
       </c>
       <c r="F15">
-        <v>35.67368607668919</v>
+        <v>39.91004575247018</v>
       </c>
       <c r="G15">
-        <v>2.028999876154868</v>
+        <v>3.670971917656727</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.99170875337509</v>
+        <v>30.75552278057336</v>
       </c>
       <c r="J15">
-        <v>4.826656529862207</v>
+        <v>9.71627255656716</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.954048681684069</v>
+        <v>9.648087395892379</v>
       </c>
       <c r="M15">
-        <v>37.21655166938085</v>
+        <v>29.35884104885253</v>
       </c>
       <c r="N15">
-        <v>22.95043387320579</v>
+        <v>18.85226922456105</v>
       </c>
       <c r="O15">
-        <v>27.42923963168673</v>
+        <v>31.11608000818318</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.568921321213751</v>
+        <v>8.416415654602948</v>
       </c>
       <c r="D16">
-        <v>3.989260715459532</v>
+        <v>7.28250006940494</v>
       </c>
       <c r="E16">
-        <v>5.97617442378733</v>
+        <v>12.00955937384919</v>
       </c>
       <c r="F16">
-        <v>34.75736969413859</v>
+        <v>39.81737609244581</v>
       </c>
       <c r="G16">
-        <v>2.034924674092172</v>
+        <v>3.67296509768085</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.37122860532797</v>
+        <v>30.70615807254783</v>
       </c>
       <c r="J16">
-        <v>4.893200892396905</v>
+        <v>9.736981571460408</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.011129772878001</v>
+        <v>9.66622741158217</v>
       </c>
       <c r="M16">
-        <v>36.10831435346527</v>
+        <v>28.93172254927511</v>
       </c>
       <c r="N16">
-        <v>22.40667564020547</v>
+        <v>18.65080921979229</v>
       </c>
       <c r="O16">
-        <v>26.73765873985235</v>
+        <v>31.04719280421473</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.57818197110661</v>
+        <v>8.426852090507211</v>
       </c>
       <c r="D17">
-        <v>4.000638123587593</v>
+        <v>7.288568323250813</v>
       </c>
       <c r="E17">
-        <v>6.031127302593687</v>
+        <v>12.02827826943062</v>
       </c>
       <c r="F17">
-        <v>34.19548583051728</v>
+        <v>39.76327727709418</v>
       </c>
       <c r="G17">
-        <v>2.03858212191501</v>
+        <v>3.674214952959941</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.99181916602731</v>
+        <v>30.67790851576591</v>
       </c>
       <c r="J17">
-        <v>4.934271763521129</v>
+        <v>9.749934749124577</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.046368865280269</v>
+        <v>9.677575812081409</v>
       </c>
       <c r="M17">
-        <v>35.41195202599264</v>
+        <v>28.66654620384648</v>
       </c>
       <c r="N17">
-        <v>22.06748483378615</v>
+        <v>18.52656781121208</v>
       </c>
       <c r="O17">
-        <v>26.31370455118497</v>
+        <v>31.00699858178627</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.583874822893759</v>
+        <v>8.432970087153564</v>
       </c>
       <c r="D18">
-        <v>4.007310713393843</v>
+        <v>7.292112605490553</v>
       </c>
       <c r="E18">
-        <v>6.062932619162218</v>
+        <v>12.03918214846853</v>
       </c>
       <c r="F18">
-        <v>33.87242637188572</v>
+        <v>39.73317762021221</v>
       </c>
       <c r="G18">
-        <v>2.040694891200428</v>
+        <v>3.674943824657504</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.7740668649526</v>
+        <v>30.66241006963048</v>
       </c>
       <c r="J18">
-        <v>4.957991011000921</v>
+        <v>9.757476739504199</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.066723559780637</v>
+        <v>9.684184180423415</v>
       </c>
       <c r="M18">
-        <v>35.00535954507234</v>
+        <v>28.51291048577084</v>
       </c>
       <c r="N18">
-        <v>21.8703674646193</v>
+        <v>18.45489099538647</v>
       </c>
       <c r="O18">
-        <v>26.06999268940611</v>
+        <v>30.98464316154891</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.585864099231983</v>
+        <v>8.435061327691914</v>
       </c>
       <c r="D19">
-        <v>4.009591731880258</v>
+        <v>7.293321917725909</v>
       </c>
       <c r="E19">
-        <v>6.07373558435945</v>
+        <v>12.04289761603728</v>
       </c>
       <c r="F19">
-        <v>33.76306839801665</v>
+        <v>39.72316148682224</v>
       </c>
       <c r="G19">
-        <v>2.04141186887202</v>
+        <v>3.675192326143345</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.70042340300824</v>
+        <v>30.65729158065073</v>
       </c>
       <c r="J19">
-        <v>4.96603897224202</v>
+        <v>9.760046091114374</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.073630523025703</v>
+        <v>9.686435601731176</v>
       </c>
       <c r="M19">
-        <v>34.86665307086325</v>
+        <v>28.46070529389354</v>
       </c>
       <c r="N19">
-        <v>21.80328328114816</v>
+        <v>18.43058752159059</v>
       </c>
       <c r="O19">
-        <v>25.98750188539326</v>
+        <v>30.97720544987973</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.57715796598139</v>
+        <v>8.425729187813415</v>
       </c>
       <c r="D20">
-        <v>3.999413598082386</v>
+        <v>7.287916762005524</v>
       </c>
       <c r="E20">
-        <v>6.025257054000789</v>
+        <v>12.02627141081284</v>
       </c>
       <c r="F20">
-        <v>34.25528758413333</v>
+        <v>39.76893110004381</v>
       </c>
       <c r="G20">
-        <v>2.038191854400589</v>
+        <v>3.67408087063343</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.03215942020842</v>
+        <v>30.68083816423432</v>
       </c>
       <c r="J20">
-        <v>4.929889840379048</v>
+        <v>9.74854637895864</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.0426087946505</v>
+        <v>9.676359369433378</v>
       </c>
       <c r="M20">
-        <v>35.48670852437247</v>
+        <v>28.69489094643336</v>
       </c>
       <c r="N20">
-        <v>22.10380265206021</v>
+        <v>18.53981645249564</v>
       </c>
       <c r="O20">
-        <v>26.35882177321498</v>
+        <v>31.01119842152963</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.552371403429046</v>
+        <v>8.395751264813921</v>
       </c>
       <c r="D21">
-        <v>3.966776095956501</v>
+        <v>7.270400606982208</v>
       </c>
       <c r="E21">
-        <v>5.864722081681055</v>
+        <v>11.97204774168186</v>
       </c>
       <c r="F21">
-        <v>35.91031835927193</v>
+        <v>39.93481696452243</v>
       </c>
       <c r="G21">
-        <v>2.027476631565936</v>
+        <v>3.670465674912256</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.15227384002561</v>
+        <v>30.76889450870923</v>
       </c>
       <c r="J21">
-        <v>4.809548398337308</v>
+        <v>9.711002667659782</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.939376100979595</v>
+        <v>9.643471891134006</v>
       </c>
       <c r="M21">
-        <v>37.49758096762083</v>
+        <v>29.46810397504728</v>
       </c>
       <c r="N21">
-        <v>23.0890569946378</v>
+        <v>18.90406196233941</v>
       </c>
       <c r="O21">
-        <v>27.60787416249247</v>
+        <v>31.13450053602269</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.539704668204624</v>
+        <v>8.377185084260288</v>
       </c>
       <c r="D22">
-        <v>3.946663728342373</v>
+        <v>7.259431834030335</v>
       </c>
       <c r="E22">
-        <v>5.761511870768776</v>
+        <v>11.93782597816759</v>
       </c>
       <c r="F22">
-        <v>36.99255154256414</v>
+        <v>40.05216139936503</v>
       </c>
       <c r="G22">
-        <v>2.020538562649586</v>
+        <v>3.668191296520204</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.8882193771945</v>
+        <v>30.83306755888663</v>
       </c>
       <c r="J22">
-        <v>4.731642719645182</v>
+        <v>9.68727756103968</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.872572832952453</v>
+        <v>9.62269596985449</v>
       </c>
       <c r="M22">
-        <v>38.80675773520876</v>
+        <v>29.96259118160036</v>
       </c>
       <c r="N22">
-        <v>23.71418472149047</v>
+        <v>19.13970376443678</v>
       </c>
       <c r="O22">
-        <v>28.42504833241965</v>
+        <v>31.22179212749069</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.546128292055707</v>
+        <v>8.387000313101055</v>
       </c>
       <c r="D23">
-        <v>3.957282778884171</v>
+        <v>7.26524232169648</v>
       </c>
       <c r="E23">
-        <v>5.816443249159421</v>
+        <v>11.9559797428872</v>
       </c>
       <c r="F23">
-        <v>36.41490296687822</v>
+        <v>39.98872197236327</v>
       </c>
       <c r="G23">
-        <v>2.024236424913296</v>
+        <v>3.669397118053854</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.49508425804668</v>
+        <v>30.79821412791334</v>
       </c>
       <c r="J23">
-        <v>4.773160102742017</v>
+        <v>9.699866021546839</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.908171297342211</v>
+        <v>9.633718968794685</v>
       </c>
       <c r="M23">
-        <v>38.09797865780973</v>
+        <v>29.6997103056505</v>
       </c>
       <c r="N23">
-        <v>23.38229480929313</v>
+        <v>19.01418106339046</v>
       </c>
       <c r="O23">
-        <v>27.98883789741167</v>
+        <v>31.17459400342481</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.577619772956363</v>
+        <v>8.426236484726193</v>
       </c>
       <c r="D24">
-        <v>3.999966797030437</v>
+        <v>7.288211159762889</v>
       </c>
       <c r="E24">
-        <v>6.027910331909584</v>
+        <v>12.02717826878842</v>
       </c>
       <c r="F24">
-        <v>34.22825128176755</v>
+        <v>39.76637188275451</v>
       </c>
       <c r="G24">
-        <v>2.038368262856191</v>
+        <v>3.674141457122015</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.01392041775263</v>
+        <v>30.67951135644785</v>
       </c>
       <c r="J24">
-        <v>4.931870573148209</v>
+        <v>9.749173765030877</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.044308424744527</v>
+        <v>9.676909061388587</v>
       </c>
       <c r="M24">
-        <v>35.45293056207164</v>
+        <v>28.68207996017938</v>
       </c>
       <c r="N24">
-        <v>22.08738993585172</v>
+        <v>18.53382751115729</v>
       </c>
       <c r="O24">
-        <v>26.33842419390009</v>
+        <v>31.00929732819241</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.62545904637347</v>
+        <v>8.472964884259101</v>
       </c>
       <c r="D25">
-        <v>4.050895053211524</v>
+        <v>7.315051730113212</v>
       </c>
       <c r="E25">
-        <v>6.263612278590866</v>
+        <v>12.10922903918157</v>
       </c>
       <c r="F25">
-        <v>31.8750902455356</v>
+        <v>39.56544421422817</v>
       </c>
       <c r="G25">
-        <v>2.053967318245087</v>
+        <v>3.679641217975443</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.43490825127428</v>
+        <v>30.58016071141443</v>
       </c>
       <c r="J25">
-        <v>5.106806403658534</v>
+        <v>9.805867472363802</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.194495484575682</v>
+        <v>9.726598479960948</v>
       </c>
       <c r="M25">
-        <v>32.37661677997231</v>
+        <v>27.54249863896129</v>
       </c>
       <c r="N25">
-        <v>20.61394248614032</v>
+        <v>18.00772915515927</v>
       </c>
       <c r="O25">
-        <v>24.56399273670901</v>
+        <v>30.86021316994051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_120/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.511166290682612</v>
+        <v>4.671297208008548</v>
       </c>
       <c r="D2">
-        <v>7.336602992512772</v>
+        <v>4.092283852471978</v>
       </c>
       <c r="E2">
-        <v>12.17420243942703</v>
+        <v>6.444036243877667</v>
       </c>
       <c r="F2">
-        <v>39.4514277408683</v>
+        <v>30.15292743028566</v>
       </c>
       <c r="G2">
-        <v>3.684023309629047</v>
+        <v>2.065836387759943</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.53185555868647</v>
+        <v>22.29192081453971</v>
       </c>
       <c r="J2">
-        <v>9.850659160572398</v>
+        <v>5.239403166238711</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.765880897118548</v>
+        <v>5.308456879589158</v>
       </c>
       <c r="M2">
-        <v>26.67294745005681</v>
+        <v>29.91303633288106</v>
       </c>
       <c r="N2">
-        <v>17.61622787179599</v>
+        <v>19.46857190027303</v>
       </c>
       <c r="O2">
-        <v>30.77590289894916</v>
+        <v>23.26665197776752</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.539426696961097</v>
+        <v>4.708383666397772</v>
       </c>
       <c r="D3">
-        <v>7.35233068474836</v>
+        <v>4.122632232892296</v>
       </c>
       <c r="E3">
-        <v>12.22110154123809</v>
+        <v>6.57077483243464</v>
       </c>
       <c r="F3">
-        <v>39.39547983692009</v>
+        <v>28.99684813320554</v>
       </c>
       <c r="G3">
-        <v>3.687202568247016</v>
+        <v>2.074153843037227</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.51466231771913</v>
+        <v>21.53227455949002</v>
       </c>
       <c r="J3">
-        <v>9.882932442996141</v>
+        <v>5.331891211155533</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.794199200526787</v>
+        <v>5.388024377955414</v>
       </c>
       <c r="M3">
-        <v>26.06779840092776</v>
+        <v>28.12100929364314</v>
       </c>
       <c r="N3">
-        <v>17.34977537613874</v>
+        <v>18.65831223179758</v>
       </c>
       <c r="O3">
-        <v>30.73476350849494</v>
+        <v>22.39645459352604</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.557949298008847</v>
+        <v>4.733941936642838</v>
       </c>
       <c r="D4">
-        <v>7.362543191737735</v>
+        <v>4.142364082088265</v>
       </c>
       <c r="E4">
-        <v>12.251318481412</v>
+        <v>6.650850997563835</v>
       </c>
       <c r="F4">
-        <v>39.37167767804947</v>
+        <v>28.29439461363713</v>
       </c>
       <c r="G4">
-        <v>3.689258618311479</v>
+        <v>2.079406085333475</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.51177588678313</v>
+        <v>21.07435311745391</v>
       </c>
       <c r="J4">
-        <v>9.903699383792274</v>
+        <v>5.390053448355869</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.812428068074746</v>
+        <v>5.438099058365817</v>
       </c>
       <c r="M4">
-        <v>25.68958484395487</v>
+        <v>26.96117334058947</v>
       </c>
       <c r="N4">
-        <v>17.18612247847599</v>
+        <v>18.1455797969328</v>
       </c>
       <c r="O4">
-        <v>30.71741959624904</v>
+        <v>21.86801334594315</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.565791901223147</v>
+        <v>4.745032270779957</v>
       </c>
       <c r="D5">
-        <v>7.36684488146725</v>
+        <v>4.150676175414195</v>
       </c>
       <c r="E5">
-        <v>12.26399032842657</v>
+        <v>6.684058460483238</v>
       </c>
       <c r="F5">
-        <v>39.36463444889758</v>
+        <v>28.01032767773559</v>
       </c>
       <c r="G5">
-        <v>3.690122711189841</v>
+        <v>2.081584364260462</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.51252812696292</v>
+        <v>20.89007212785932</v>
       </c>
       <c r="J5">
-        <v>9.91240192504825</v>
+        <v>5.414111403813351</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.820068666399969</v>
+        <v>5.458820972940703</v>
       </c>
       <c r="M5">
-        <v>25.53397500618296</v>
+        <v>26.47375038096169</v>
       </c>
       <c r="N5">
-        <v>17.11949846769474</v>
+        <v>17.93308102835261</v>
       </c>
       <c r="O5">
-        <v>30.71234496560293</v>
+        <v>21.65438563564026</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.567111950329483</v>
+        <v>4.746913865226208</v>
       </c>
       <c r="D6">
-        <v>7.367567638598743</v>
+        <v>4.15207263987857</v>
       </c>
       <c r="E6">
-        <v>12.26611614126723</v>
+        <v>6.689607540127305</v>
       </c>
       <c r="F6">
-        <v>39.36362541565787</v>
+        <v>27.96330099134525</v>
       </c>
       <c r="G6">
-        <v>3.690267780408633</v>
+        <v>2.081948397477746</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.5127694767217</v>
+        <v>20.85961852401673</v>
       </c>
       <c r="J6">
-        <v>9.913861482076316</v>
+        <v>5.418128038493175</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.821350216036391</v>
+        <v>5.462281183832</v>
       </c>
       <c r="M6">
-        <v>25.50805208898878</v>
+        <v>26.39192809160852</v>
       </c>
       <c r="N6">
-        <v>17.10844188927237</v>
+        <v>17.89758970828386</v>
       </c>
       <c r="O6">
-        <v>30.71162275216019</v>
+        <v>21.61902402784603</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.558053873517565</v>
+        <v>4.734088804059929</v>
       </c>
       <c r="D7">
-        <v>7.362600638541752</v>
+        <v>4.142475089828383</v>
       </c>
       <c r="E7">
-        <v>12.25148792678556</v>
+        <v>6.651296503276773</v>
       </c>
       <c r="F7">
-        <v>39.37157193254667</v>
+        <v>28.29055426717036</v>
       </c>
       <c r="G7">
-        <v>3.689270165422382</v>
+        <v>2.079435306908666</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.51177822486952</v>
+        <v>21.07185816847323</v>
       </c>
       <c r="J7">
-        <v>9.903815777263322</v>
+        <v>5.390376445517858</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.812530251890667</v>
+        <v>5.438377229620976</v>
       </c>
       <c r="M7">
-        <v>25.68749199279088</v>
+        <v>26.95465933972319</v>
       </c>
       <c r="N7">
-        <v>17.18522359277541</v>
+        <v>18.14272797430719</v>
       </c>
       <c r="O7">
-        <v>30.71734308568654</v>
+        <v>21.86512500413208</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.520667603047251</v>
+        <v>4.683490255207217</v>
       </c>
       <c r="D8">
-        <v>7.341910752474484</v>
+        <v>4.102517043809277</v>
       </c>
       <c r="E8">
-        <v>12.19007895852113</v>
+        <v>6.487271855687125</v>
       </c>
       <c r="F8">
-        <v>39.42995001330954</v>
+        <v>29.75296828977165</v>
       </c>
       <c r="G8">
-        <v>3.685097993427248</v>
+        <v>2.068674969613627</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.52433559619864</v>
+        <v>22.02833836172835</v>
       </c>
       <c r="J8">
-        <v>9.861590031061953</v>
+        <v>5.271014533078223</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.775470815216519</v>
+        <v>5.335644347169366</v>
       </c>
       <c r="M8">
-        <v>26.46578170889866</v>
+        <v>29.30759499720354</v>
       </c>
       <c r="N8">
-        <v>17.52441218245954</v>
+        <v>19.19250807429363</v>
       </c>
       <c r="O8">
-        <v>30.76007720497111</v>
+        <v>22.96552931018992</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.456635179770668</v>
+        <v>4.607611436969465</v>
       </c>
       <c r="D9">
-        <v>7.305733437102417</v>
+        <v>4.033116506957871</v>
       </c>
       <c r="E9">
-        <v>12.08088465536554</v>
+        <v>6.183170321059594</v>
       </c>
       <c r="F9">
-        <v>39.62788363070951</v>
+        <v>32.66662128132216</v>
       </c>
       <c r="G9">
-        <v>3.67773720313033</v>
+        <v>2.048658052165243</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.60977660153833</v>
+        <v>23.96405320858042</v>
       </c>
       <c r="J9">
-        <v>9.786298692085772</v>
+        <v>5.047326422478168</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.709443568389375</v>
+        <v>5.143411756324434</v>
       </c>
       <c r="M9">
-        <v>27.93149861200899</v>
+        <v>33.44381715291016</v>
       </c>
       <c r="N9">
-        <v>18.18577634442784</v>
+        <v>21.12009005187915</v>
       </c>
       <c r="O9">
-        <v>30.90649689737817</v>
+        <v>25.16064682766505</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.415240399112736</v>
+        <v>4.567915151479727</v>
       </c>
       <c r="D10">
-        <v>7.281814948574279</v>
+        <v>3.987980131451193</v>
       </c>
       <c r="E10">
-        <v>12.00744199765367</v>
+        <v>5.969930543723801</v>
       </c>
       <c r="F10">
-        <v>39.82368649589556</v>
+        <v>34.82149853928556</v>
       </c>
       <c r="G10">
-        <v>3.672823831914902</v>
+        <v>2.034508515006781</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.70948299392133</v>
+        <v>25.41458449078711</v>
       </c>
       <c r="J10">
-        <v>9.735515929659746</v>
+        <v>4.888527105914032</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.664943451618393</v>
+        <v>5.007120083374008</v>
       </c>
       <c r="M10">
-        <v>28.96182682874153</v>
+        <v>36.18695256870416</v>
       </c>
       <c r="N10">
-        <v>18.66495500474066</v>
+        <v>22.44510253670752</v>
       </c>
       <c r="O10">
-        <v>31.05188237897725</v>
+        <v>26.78605143844635</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.397633985258807</v>
+        <v>4.553776001273554</v>
       </c>
       <c r="D11">
-        <v>7.271507682478067</v>
+        <v>3.968821183899395</v>
       </c>
       <c r="E11">
-        <v>11.97549036417444</v>
+        <v>5.875024123213823</v>
       </c>
       <c r="F11">
-        <v>39.92354534172868</v>
+        <v>35.80303645676526</v>
       </c>
       <c r="G11">
-        <v>3.670694775409819</v>
+        <v>2.028166913236079</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>30.76280161656059</v>
+        <v>26.07946228304256</v>
       </c>
       <c r="J11">
-        <v>9.713388059351756</v>
+        <v>4.817301119895488</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.645561046891304</v>
+        <v>4.946025004900075</v>
       </c>
       <c r="M11">
-        <v>29.41861924795643</v>
+        <v>37.37042358003502</v>
       </c>
       <c r="N11">
-        <v>18.88059259776184</v>
+        <v>23.02629831599677</v>
       </c>
       <c r="O11">
-        <v>31.12611834762259</v>
+        <v>27.52688476290027</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.391142862748373</v>
+        <v>4.549024457414991</v>
       </c>
       <c r="D12">
-        <v>7.267686750245201</v>
+        <v>3.961774071398045</v>
       </c>
       <c r="E12">
-        <v>11.96359975369159</v>
+        <v>5.839378837010079</v>
       </c>
       <c r="F12">
-        <v>39.96289320156857</v>
+        <v>36.17482146586486</v>
       </c>
       <c r="G12">
-        <v>3.669903714108718</v>
+        <v>2.025776842873803</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.78412930265667</v>
+        <v>26.33190344893325</v>
       </c>
       <c r="J12">
-        <v>9.705148054164251</v>
+        <v>4.79045856847704</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.638344569749766</v>
+        <v>4.923005086693038</v>
       </c>
       <c r="M12">
-        <v>29.5897445717574</v>
+        <v>37.80932702184858</v>
       </c>
       <c r="N12">
-        <v>18.96184110352726</v>
+        <v>23.24316702390547</v>
       </c>
       <c r="O12">
-        <v>31.15538171914881</v>
+        <v>27.80756666395514</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.392533012493967</v>
+        <v>4.550020333940616</v>
       </c>
       <c r="D13">
-        <v>7.268506004106248</v>
+        <v>3.963282362054002</v>
       </c>
       <c r="E13">
-        <v>11.96615133732937</v>
+        <v>5.847042745277213</v>
       </c>
       <c r="F13">
-        <v>39.95435104097167</v>
+        <v>36.09474726577125</v>
       </c>
       <c r="G13">
-        <v>3.670073410144133</v>
+        <v>2.026291121572822</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.77948557150611</v>
+        <v>26.27750657308536</v>
       </c>
       <c r="J13">
-        <v>9.70691649977385</v>
+        <v>4.796234122135493</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.639893296235197</v>
+        <v>4.927957949453837</v>
       </c>
       <c r="M13">
-        <v>29.5529741471459</v>
+        <v>37.71521238415131</v>
       </c>
       <c r="N13">
-        <v>18.94436207452006</v>
+        <v>23.1966051938605</v>
       </c>
       <c r="O13">
-        <v>31.14902832391053</v>
+        <v>27.74711085769709</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.397096428511215</v>
+        <v>4.553372777681997</v>
       </c>
       <c r="D14">
-        <v>7.271191685947484</v>
+        <v>3.968237180833384</v>
       </c>
       <c r="E14">
-        <v>11.97450793708024</v>
+        <v>5.87208572130021</v>
       </c>
       <c r="F14">
-        <v>39.92675189041364</v>
+        <v>35.83362174295885</v>
       </c>
       <c r="G14">
-        <v>3.670629390853601</v>
+        <v>2.027970067198674</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>30.76453351918515</v>
+        <v>26.10021759938632</v>
       </c>
       <c r="J14">
-        <v>9.712707360275765</v>
+        <v>4.815090276690947</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.644964876797538</v>
+        <v>4.94412891670264</v>
       </c>
       <c r="M14">
-        <v>29.43273570947823</v>
+        <v>37.40671770889431</v>
       </c>
       <c r="N14">
-        <v>18.88728555387434</v>
+        <v>23.04420530998446</v>
       </c>
       <c r="O14">
-        <v>31.1285028583581</v>
+        <v>27.54997392537302</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.399914578749664</v>
+        <v>4.555505933669592</v>
       </c>
       <c r="D15">
-        <v>7.272847442033585</v>
+        <v>3.971299567903625</v>
       </c>
       <c r="E15">
-        <v>11.97965375989746</v>
+        <v>5.887463290346879</v>
       </c>
       <c r="F15">
-        <v>39.91004575247018</v>
+        <v>35.67368607668919</v>
       </c>
       <c r="G15">
-        <v>3.670971917656727</v>
+        <v>2.028999876154999</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>30.75552278057336</v>
+        <v>25.99170875337511</v>
       </c>
       <c r="J15">
-        <v>9.71627255656716</v>
+        <v>4.826656529862207</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.648087395892379</v>
+        <v>4.954048681683968</v>
       </c>
       <c r="M15">
-        <v>29.35884104885253</v>
+        <v>37.21655166938086</v>
       </c>
       <c r="N15">
-        <v>18.85226922456105</v>
+        <v>22.95043387320576</v>
       </c>
       <c r="O15">
-        <v>31.11608000818318</v>
+        <v>27.42923963168675</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.416415654602948</v>
+        <v>4.568921321213949</v>
       </c>
       <c r="D16">
-        <v>7.28250006940494</v>
+        <v>3.989260715459528</v>
       </c>
       <c r="E16">
-        <v>12.00955937384919</v>
+        <v>5.976174423787394</v>
       </c>
       <c r="F16">
-        <v>39.81737609244581</v>
+        <v>34.75736969413854</v>
       </c>
       <c r="G16">
-        <v>3.67296509768085</v>
+        <v>2.034924674092171</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.70615807254783</v>
+        <v>25.37122860532795</v>
       </c>
       <c r="J16">
-        <v>9.736981571460408</v>
+        <v>4.893200892396973</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.66622741158217</v>
+        <v>5.011129772878033</v>
       </c>
       <c r="M16">
-        <v>28.93172254927511</v>
+        <v>36.10831435346528</v>
       </c>
       <c r="N16">
-        <v>18.65080921979229</v>
+        <v>22.40667564020548</v>
       </c>
       <c r="O16">
-        <v>31.04719280421473</v>
+        <v>26.73765873985233</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.426852090507211</v>
+        <v>4.578181971106401</v>
       </c>
       <c r="D17">
-        <v>7.288568323250813</v>
+        <v>4.000638123587531</v>
       </c>
       <c r="E17">
-        <v>12.02827826943062</v>
+        <v>6.031127302593555</v>
       </c>
       <c r="F17">
-        <v>39.76327727709418</v>
+        <v>34.19548583051721</v>
       </c>
       <c r="G17">
-        <v>3.674214952959941</v>
+        <v>2.038582121914743</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.67790851576591</v>
+        <v>24.99181916602722</v>
       </c>
       <c r="J17">
-        <v>9.749934749124577</v>
+        <v>4.934271763521062</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.677575812081409</v>
+        <v>5.046368865280203</v>
       </c>
       <c r="M17">
-        <v>28.66654620384648</v>
+        <v>35.41195202599261</v>
       </c>
       <c r="N17">
-        <v>18.52656781121208</v>
+        <v>22.06748483378615</v>
       </c>
       <c r="O17">
-        <v>31.00699858178627</v>
+        <v>26.3137045511849</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.432970087153564</v>
+        <v>4.583874822893759</v>
       </c>
       <c r="D18">
-        <v>7.292112605490553</v>
+        <v>4.007310713393843</v>
       </c>
       <c r="E18">
-        <v>12.03918214846853</v>
+        <v>6.062932619162153</v>
       </c>
       <c r="F18">
-        <v>39.73317762021221</v>
+        <v>33.87242637188572</v>
       </c>
       <c r="G18">
-        <v>3.674943824657504</v>
+        <v>2.040694891200565</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.66241006963048</v>
+        <v>24.77406686495261</v>
       </c>
       <c r="J18">
-        <v>9.757476739504199</v>
+        <v>4.957991011000855</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.684184180423415</v>
+        <v>5.066723559780604</v>
       </c>
       <c r="M18">
-        <v>28.51291048577084</v>
+        <v>35.00535954507234</v>
       </c>
       <c r="N18">
-        <v>18.45489099538647</v>
+        <v>21.87036746461928</v>
       </c>
       <c r="O18">
-        <v>30.98464316154891</v>
+        <v>26.06999268940611</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.435061327691914</v>
+        <v>4.585864099231876</v>
       </c>
       <c r="D19">
-        <v>7.293321917725909</v>
+        <v>4.009591731880326</v>
       </c>
       <c r="E19">
-        <v>12.04289761603728</v>
+        <v>6.073735584359319</v>
       </c>
       <c r="F19">
-        <v>39.72316148682224</v>
+        <v>33.76306839801664</v>
       </c>
       <c r="G19">
-        <v>3.675192326143345</v>
+        <v>2.041411868872018</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.65729158065073</v>
+        <v>24.70042340300822</v>
       </c>
       <c r="J19">
-        <v>9.760046091114374</v>
+        <v>4.966038972241921</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.686435601731176</v>
+        <v>5.07363052302567</v>
       </c>
       <c r="M19">
-        <v>28.46070529389354</v>
+        <v>34.86665307086322</v>
       </c>
       <c r="N19">
-        <v>18.43058752159059</v>
+        <v>21.80328328114814</v>
       </c>
       <c r="O19">
-        <v>30.97720544987973</v>
+        <v>25.98750188539323</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.425729187813415</v>
+        <v>4.577157965981609</v>
       </c>
       <c r="D20">
-        <v>7.287916762005524</v>
+        <v>3.999413598082513</v>
       </c>
       <c r="E20">
-        <v>12.02627141081284</v>
+        <v>6.025257054000853</v>
       </c>
       <c r="F20">
-        <v>39.76893110004381</v>
+        <v>34.25528758413338</v>
       </c>
       <c r="G20">
-        <v>3.67408087063343</v>
+        <v>2.03819185440072</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.68083816423432</v>
+        <v>25.03215942020844</v>
       </c>
       <c r="J20">
-        <v>9.74854637895864</v>
+        <v>4.929889840379115</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.676359369433378</v>
+        <v>5.0426087946505</v>
       </c>
       <c r="M20">
-        <v>28.69489094643336</v>
+        <v>35.48670852437247</v>
       </c>
       <c r="N20">
-        <v>18.53981645249564</v>
+        <v>22.10380265206019</v>
       </c>
       <c r="O20">
-        <v>31.01119842152963</v>
+        <v>26.35882177321499</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.395751264813921</v>
+        <v>4.552371403429036</v>
       </c>
       <c r="D21">
-        <v>7.270400606982208</v>
+        <v>3.966776095956368</v>
       </c>
       <c r="E21">
-        <v>11.97204774168186</v>
+        <v>5.864722081681053</v>
       </c>
       <c r="F21">
-        <v>39.93481696452243</v>
+        <v>35.91031835927193</v>
       </c>
       <c r="G21">
-        <v>3.670465674912256</v>
+        <v>2.02747663156607</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>30.76889450870923</v>
+        <v>26.15227384002562</v>
       </c>
       <c r="J21">
-        <v>9.711002667659782</v>
+        <v>4.80954839833734</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.643471891134006</v>
+        <v>4.939376100979592</v>
       </c>
       <c r="M21">
-        <v>29.46810397504728</v>
+        <v>37.49758096762083</v>
       </c>
       <c r="N21">
-        <v>18.90406196233941</v>
+        <v>23.08905699463782</v>
       </c>
       <c r="O21">
-        <v>31.13450053602269</v>
+        <v>27.60787416249248</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.377185084260288</v>
+        <v>4.539704668204722</v>
       </c>
       <c r="D22">
-        <v>7.259431834030335</v>
+        <v>3.94666372834224</v>
       </c>
       <c r="E22">
-        <v>11.93782597816759</v>
+        <v>5.761511870768643</v>
       </c>
       <c r="F22">
-        <v>40.05216139936503</v>
+        <v>36.99255154256409</v>
       </c>
       <c r="G22">
-        <v>3.668191296520204</v>
+        <v>2.020538562649581</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.83306755888663</v>
+        <v>26.88821937719447</v>
       </c>
       <c r="J22">
-        <v>9.68727756103968</v>
+        <v>4.731642719645147</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.62269596985449</v>
+        <v>4.872572832952385</v>
       </c>
       <c r="M22">
-        <v>29.96259118160036</v>
+        <v>38.8067577352088</v>
       </c>
       <c r="N22">
-        <v>19.13970376443678</v>
+        <v>23.71418472149049</v>
       </c>
       <c r="O22">
-        <v>31.22179212749069</v>
+        <v>28.42504833241961</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.387000313101055</v>
+        <v>4.546128292055728</v>
       </c>
       <c r="D23">
-        <v>7.26524232169648</v>
+        <v>3.957282778884177</v>
       </c>
       <c r="E23">
-        <v>11.9559797428872</v>
+        <v>5.816443249159423</v>
       </c>
       <c r="F23">
-        <v>39.98872197236327</v>
+        <v>36.41490296687822</v>
       </c>
       <c r="G23">
-        <v>3.669397118053854</v>
+        <v>2.024236424913299</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.79821412791334</v>
+        <v>26.49508425804668</v>
       </c>
       <c r="J23">
-        <v>9.699866021546839</v>
+        <v>4.773160102741984</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.633718968794685</v>
+        <v>4.908171297342211</v>
       </c>
       <c r="M23">
-        <v>29.6997103056505</v>
+        <v>38.09797865780975</v>
       </c>
       <c r="N23">
-        <v>19.01418106339046</v>
+        <v>23.38229480929312</v>
       </c>
       <c r="O23">
-        <v>31.17459400342481</v>
+        <v>27.98883789741167</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.426236484726193</v>
+        <v>4.577619772956363</v>
       </c>
       <c r="D24">
-        <v>7.288211159762889</v>
+        <v>3.999966797030504</v>
       </c>
       <c r="E24">
-        <v>12.02717826878842</v>
+        <v>6.027910331909581</v>
       </c>
       <c r="F24">
-        <v>39.76637188275451</v>
+        <v>34.22825128176755</v>
       </c>
       <c r="G24">
-        <v>3.674141457122015</v>
+        <v>2.038368262856323</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.67951135644785</v>
+        <v>25.01392041775262</v>
       </c>
       <c r="J24">
-        <v>9.749173765030877</v>
+        <v>4.931870573148176</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.676909061388587</v>
+        <v>5.044308424744526</v>
       </c>
       <c r="M24">
-        <v>28.68207996017938</v>
+        <v>35.45293056207164</v>
       </c>
       <c r="N24">
-        <v>18.53382751115729</v>
+        <v>22.08738993585172</v>
       </c>
       <c r="O24">
-        <v>31.00929732819241</v>
+        <v>26.33842419390009</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.472964884259101</v>
+        <v>4.625459046373702</v>
       </c>
       <c r="D25">
-        <v>7.315051730113212</v>
+        <v>4.05089505321159</v>
       </c>
       <c r="E25">
-        <v>12.10922903918157</v>
+        <v>6.263612278590931</v>
       </c>
       <c r="F25">
-        <v>39.56544421422817</v>
+        <v>31.87509024553559</v>
       </c>
       <c r="G25">
-        <v>3.679641217975443</v>
+        <v>2.053967318245351</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.58016071141443</v>
+        <v>23.43490825127427</v>
       </c>
       <c r="J25">
-        <v>9.805867472363802</v>
+        <v>5.1068064036585</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.726598479960948</v>
+        <v>5.19449548457568</v>
       </c>
       <c r="M25">
-        <v>27.54249863896129</v>
+        <v>32.37661677997232</v>
       </c>
       <c r="N25">
-        <v>18.00772915515927</v>
+        <v>20.61394248614036</v>
       </c>
       <c r="O25">
-        <v>30.86021316994051</v>
+        <v>24.56399273670901</v>
       </c>
     </row>
   </sheetData>
